--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\JavaLecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4482A914-D302-4E00-8981-EB6556CC8C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E839C2-269F-4742-96B0-23B3C3A0FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.\\2022-2023-2-clazzs.xlsx</t>
+    <t>.\\2023-2024-1-clazzs.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
